--- a/currentbuild/ValueSet-lmdi-medicationadministration-status.xlsx
+++ b/currentbuild/ValueSet-lmdi-medicationadministration-status.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.0</t>
+    <t>0.6.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/ValueSet-lmdi-medicationadministration-status.xlsx
+++ b/currentbuild/ValueSet-lmdi-medicationadministration-status.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.1</t>
+    <t>0.6.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/ValueSet-lmdi-medicationadministration-status.xlsx
+++ b/currentbuild/ValueSet-lmdi-medicationadministration-status.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.2</t>
+    <t>0.6.3</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/ValueSet-lmdi-medicationadministration-status.xlsx
+++ b/currentbuild/ValueSet-lmdi-medicationadministration-status.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.3</t>
+    <t>0.6.4</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/ValueSet-lmdi-medicationadministration-status.xlsx
+++ b/currentbuild/ValueSet-lmdi-medicationadministration-status.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.4</t>
+    <t>0.6.5</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/ValueSet-lmdi-medicationadministration-status.xlsx
+++ b/currentbuild/ValueSet-lmdi-medicationadministration-status.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.5</t>
+    <t>0.6.6</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/ValueSet-lmdi-medicationadministration-status.xlsx
+++ b/currentbuild/ValueSet-lmdi-medicationadministration-status.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.6</t>
+    <t>0.6.7</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/ValueSet-lmdi-medicationadministration-status.xlsx
+++ b/currentbuild/ValueSet-lmdi-medicationadministration-status.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.7</t>
+    <t>0.8.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/ValueSet-lmdi-medicationadministration-status.xlsx
+++ b/currentbuild/ValueSet-lmdi-medicationadministration-status.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.8.0</t>
+    <t>0.8.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/ValueSet-lmdi-medicationadministration-status.xlsx
+++ b/currentbuild/ValueSet-lmdi-medicationadministration-status.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.8.1</t>
+    <t>0.8.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/ValueSet-lmdi-medicationadministration-status.xlsx
+++ b/currentbuild/ValueSet-lmdi-medicationadministration-status.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.8.2</t>
+    <t>0.8.3</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/ValueSet-lmdi-medicationadministration-status.xlsx
+++ b/currentbuild/ValueSet-lmdi-medicationadministration-status.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.8.3</t>
+    <t>0.8.4</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/ValueSet-lmdi-medicationadministration-status.xlsx
+++ b/currentbuild/ValueSet-lmdi-medicationadministration-status.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.8.4</t>
+    <t>0.8.5</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/ValueSet-lmdi-medicationadministration-status.xlsx
+++ b/currentbuild/ValueSet-lmdi-medicationadministration-status.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.8.5</t>
+    <t>0.9.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/ValueSet-lmdi-medicationadministration-status.xlsx
+++ b/currentbuild/ValueSet-lmdi-medicationadministration-status.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.0</t>
+    <t>0.9.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/ValueSet-lmdi-medicationadministration-status.xlsx
+++ b/currentbuild/ValueSet-lmdi-medicationadministration-status.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from medication-admin" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>

--- a/currentbuild/ValueSet-lmdi-medicationadministration-status.xlsx
+++ b/currentbuild/ValueSet-lmdi-medicationadministration-status.xlsx
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Status for legemiddeladministrasjon</t>
+    <t>Status for legemiddeladministrering</t>
   </si>
   <si>
     <t>Status</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Verdisett som begrenses status til Legemiddeladministrasjon til henholdsvis 'Gjennomført' eller 'Feilregistrert'.</t>
+    <t>Verdisett som begrenses status til Legemiddeladministrering til henholdsvis 'Gjennomført' eller 'Feilregistrert'.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/currentbuild/ValueSet-lmdi-medicationadministration-status.xlsx
+++ b/currentbuild/ValueSet-lmdi-medicationadministration-status.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.1</t>
+    <t>0.9.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -66,13 +66,16 @@
     <t>Publisher</t>
   </si>
   <si>
-    <t>Folkehelseinstituttet (FHI)</t>
+    <t>Folkehelseinstituttet</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>Folkehelseinstituttet (FHI) (https://www.fhi.no)</t>
+    <t>Folkehelseinstituttet (https://www.fhi.no)</t>
+  </si>
+  <si>
+    <t>Legemiddelregisteret (legemiddelregisteret@fhi.no)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -254,7 +257,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -346,25 +349,27 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s" s="2">
         <v>20</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s" s="2">
         <v>22</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>23</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s" s="2">
         <v>24</v>
       </c>
-      <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
@@ -376,8 +381,14 @@
       <c r="A15" t="s" s="2">
         <v>26</v>
       </c>
-      <c r="B15" t="s" s="2">
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
         <v>27</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -399,42 +410,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
